--- a/UTILMD MIG 5.2e.xlsx
+++ b/UTILMD MIG 5.2e.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I323799\Documents\GitHub\EDIParser\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEECBAF5-9DD5-45C7-A15B-D0065FEF98EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1036,8 +1042,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1074,6 +1080,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1120,7 +1134,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1152,9 +1166,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1186,6 +1218,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1361,14 +1411,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I707"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="5" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="68.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1470,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1425,7 +1484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>14</v>
       </c>
@@ -1439,7 +1498,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>14</v>
       </c>
@@ -1453,7 +1512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>17</v>
       </c>
@@ -1467,7 +1526,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -1481,7 +1540,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1495,7 +1554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>23</v>
       </c>
@@ -1509,7 +1568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>24</v>
       </c>
@@ -1523,7 +1582,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>26</v>
       </c>
@@ -1537,7 +1596,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>28</v>
       </c>
@@ -1551,7 +1610,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>21</v>
       </c>
@@ -1565,7 +1624,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>23</v>
       </c>
@@ -1579,7 +1638,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>31</v>
       </c>
@@ -1593,7 +1652,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>33</v>
       </c>
@@ -1607,7 +1666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>34</v>
       </c>
@@ -1621,7 +1680,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>36</v>
       </c>
@@ -1635,7 +1694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>38</v>
       </c>
@@ -1649,7 +1708,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>39</v>
       </c>
@@ -1663,7 +1722,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>20</v>
       </c>
@@ -1677,7 +1736,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>39</v>
       </c>
@@ -1691,7 +1750,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -1705,7 +1764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>43</v>
       </c>
@@ -1719,7 +1778,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>45</v>
       </c>
@@ -1733,7 +1792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>20</v>
       </c>
@@ -1747,7 +1806,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D27" t="s">
         <v>47</v>
       </c>
@@ -1761,7 +1820,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>49</v>
       </c>
@@ -1775,7 +1834,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>31</v>
       </c>
@@ -1789,7 +1848,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="2:9">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
         <v>33</v>
       </c>
@@ -1803,7 +1862,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="2:9">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>52</v>
       </c>
@@ -1817,7 +1876,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:9">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -1831,7 +1890,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="3:9">
+    <row r="33" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -1845,7 +1904,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="3:9">
+    <row r="34" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>14</v>
       </c>
@@ -1859,7 +1918,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="3:9">
+    <row r="35" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +1932,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="3:9">
+    <row r="36" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -1887,7 +1946,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="3:9">
+    <row r="37" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -1901,7 +1960,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="3:9">
+    <row r="38" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -1915,7 +1974,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="3:9">
+    <row r="39" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -1929,7 +1988,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="3:9">
+    <row r="40" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -1943,7 +2002,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="3:9">
+    <row r="41" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>14</v>
       </c>
@@ -1957,7 +2016,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="3:9">
+    <row r="42" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +2030,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="43" spans="3:9">
+    <row r="43" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -1985,7 +2044,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="3:9">
+    <row r="44" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -1999,7 +2058,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="3:9">
+    <row r="45" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -2013,7 +2072,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="3:9">
+    <row r="46" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -2027,7 +2086,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="47" spans="3:9">
+    <row r="47" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>34</v>
       </c>
@@ -2041,7 +2100,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="48" spans="3:9">
+    <row r="48" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>34</v>
       </c>
@@ -2055,7 +2114,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="49" spans="3:9">
+    <row r="49" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>34</v>
       </c>
@@ -2069,7 +2128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="3:9">
+    <row r="50" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>34</v>
       </c>
@@ -2083,7 +2142,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="3:9">
+    <row r="51" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>34</v>
       </c>
@@ -2097,7 +2156,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="3:9">
+    <row r="52" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>73</v>
       </c>
@@ -2111,7 +2170,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="3:9">
+    <row r="53" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>75</v>
       </c>
@@ -2125,7 +2184,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="54" spans="3:9">
+    <row r="54" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>75</v>
       </c>
@@ -2139,7 +2198,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="55" spans="3:9">
+    <row r="55" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>75</v>
       </c>
@@ -2153,7 +2212,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="3:9">
+    <row r="56" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>75</v>
       </c>
@@ -2167,7 +2226,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="57" spans="3:9">
+    <row r="57" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>80</v>
       </c>
@@ -2181,7 +2240,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="58" spans="3:9">
+    <row r="58" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>36</v>
       </c>
@@ -2195,7 +2254,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="3:9">
+    <row r="59" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
@@ -2209,7 +2268,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="3:9">
+    <row r="60" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>36</v>
       </c>
@@ -2223,7 +2282,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="3:9">
+    <row r="61" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>38</v>
       </c>
@@ -2237,7 +2296,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="62" spans="3:9">
+    <row r="62" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>39</v>
       </c>
@@ -2251,7 +2310,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="3:9">
+    <row r="63" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>20</v>
       </c>
@@ -2265,7 +2324,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" spans="3:9">
+    <row r="64" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>39</v>
       </c>
@@ -2279,7 +2338,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="3:9">
+    <row r="65" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>20</v>
       </c>
@@ -2293,7 +2352,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="66" spans="3:9">
+    <row r="66" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>39</v>
       </c>
@@ -2307,7 +2366,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="67" spans="3:9">
+    <row r="67" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>20</v>
       </c>
@@ -2321,7 +2380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="68" spans="3:9">
+    <row r="68" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>39</v>
       </c>
@@ -2335,7 +2394,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="69" spans="3:9">
+    <row r="69" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>20</v>
       </c>
@@ -2349,7 +2408,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="70" spans="3:9">
+    <row r="70" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>39</v>
       </c>
@@ -2363,7 +2422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="71" spans="3:9">
+    <row r="71" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>20</v>
       </c>
@@ -2377,7 +2436,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="72" spans="3:9">
+    <row r="72" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D72" t="s">
         <v>14</v>
       </c>
@@ -2391,7 +2450,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" spans="3:9">
+    <row r="73" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D73" t="s">
         <v>14</v>
       </c>
@@ -2405,7 +2464,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="74" spans="3:9">
+    <row r="74" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>39</v>
       </c>
@@ -2419,7 +2478,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="75" spans="3:9">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>20</v>
       </c>
@@ -2433,7 +2492,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="76" spans="3:9">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D76" t="s">
         <v>14</v>
       </c>
@@ -2447,7 +2506,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="3:9">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D77" t="s">
         <v>14</v>
       </c>
@@ -2461,7 +2520,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="78" spans="3:9">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>14</v>
       </c>
@@ -2475,7 +2534,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="79" spans="3:9">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>14</v>
       </c>
@@ -2489,7 +2548,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="80" spans="3:9">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>14</v>
       </c>
@@ -2503,7 +2562,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="81" spans="3:9">
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>14</v>
       </c>
@@ -2517,7 +2576,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="3:9">
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>39</v>
       </c>
@@ -2531,7 +2590,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="3:9">
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C83" t="s">
         <v>20</v>
       </c>
@@ -2545,7 +2604,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="3:9">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
         <v>14</v>
       </c>
@@ -2559,7 +2618,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="3:9">
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>43</v>
       </c>
@@ -2573,7 +2632,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="86" spans="3:9">
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>45</v>
       </c>
@@ -2587,7 +2646,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="87" spans="3:9">
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D87" t="s">
         <v>20</v>
       </c>
@@ -2601,7 +2660,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="88" spans="3:9">
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D88" t="s">
         <v>102</v>
       </c>
@@ -2615,7 +2674,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="3:9">
+    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D89" t="s">
         <v>104</v>
       </c>
@@ -2629,7 +2688,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="3:9">
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D90" t="s">
         <v>102</v>
       </c>
@@ -2643,7 +2702,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="91" spans="3:9">
+    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D91" t="s">
         <v>104</v>
       </c>
@@ -2657,7 +2716,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="92" spans="3:9">
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D92" t="s">
         <v>102</v>
       </c>
@@ -2671,7 +2730,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="93" spans="3:9">
+    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D93" t="s">
         <v>104</v>
       </c>
@@ -2685,7 +2744,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="94" spans="3:9">
+    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
         <v>102</v>
       </c>
@@ -2699,7 +2758,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="95" spans="3:9">
+    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D95" t="s">
         <v>104</v>
       </c>
@@ -2713,7 +2772,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="96" spans="3:9">
+    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D96" t="s">
         <v>102</v>
       </c>
@@ -2727,7 +2786,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="97" spans="4:9">
+    <row r="97" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D97" t="s">
         <v>104</v>
       </c>
@@ -2741,7 +2800,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="98" spans="4:9">
+    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
         <v>104</v>
       </c>
@@ -2755,7 +2814,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="99" spans="4:9">
+    <row r="99" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
         <v>47</v>
       </c>
@@ -2769,7 +2828,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="100" spans="4:9">
+    <row r="100" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
         <v>49</v>
       </c>
@@ -2783,7 +2842,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="101" spans="4:9">
+    <row r="101" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
         <v>47</v>
       </c>
@@ -2797,7 +2856,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="102" spans="4:9">
+    <row r="102" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
         <v>49</v>
       </c>
@@ -2811,7 +2870,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="4:9">
+    <row r="103" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E103" t="s">
         <v>112</v>
       </c>
@@ -2825,7 +2884,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="104" spans="4:9">
+    <row r="104" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E104" t="s">
         <v>112</v>
       </c>
@@ -2839,7 +2898,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="4:9">
+    <row r="105" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E105" t="s">
         <v>112</v>
       </c>
@@ -2853,7 +2912,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="106" spans="4:9">
+    <row r="106" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E106" t="s">
         <v>112</v>
       </c>
@@ -2867,7 +2926,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="4:9">
+    <row r="107" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
         <v>47</v>
       </c>
@@ -2881,7 +2940,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="108" spans="4:9">
+    <row r="108" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>49</v>
       </c>
@@ -2895,7 +2954,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="109" spans="4:9">
+    <row r="109" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>47</v>
       </c>
@@ -2909,7 +2968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="110" spans="4:9">
+    <row r="110" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>49</v>
       </c>
@@ -2923,7 +2982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="111" spans="4:9">
+    <row r="111" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E111" t="s">
         <v>112</v>
       </c>
@@ -2937,7 +2996,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="112" spans="4:9">
+    <row r="112" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>47</v>
       </c>
@@ -2951,7 +3010,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="113" spans="4:9">
+    <row r="113" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>49</v>
       </c>
@@ -2965,7 +3024,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="114" spans="4:9">
+    <row r="114" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
         <v>47</v>
       </c>
@@ -2979,7 +3038,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="115" spans="4:9">
+    <row r="115" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>49</v>
       </c>
@@ -2993,7 +3052,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="116" spans="4:9">
+    <row r="116" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>47</v>
       </c>
@@ -3007,7 +3066,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="117" spans="4:9">
+    <row r="117" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>49</v>
       </c>
@@ -3021,7 +3080,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="4:9">
+    <row r="118" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E118" t="s">
         <v>112</v>
       </c>
@@ -3035,7 +3094,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="4:9">
+    <row r="119" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
         <v>47</v>
       </c>
@@ -3049,7 +3108,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="4:9">
+    <row r="120" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>49</v>
       </c>
@@ -3063,7 +3122,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="121" spans="4:9">
+    <row r="121" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E121" t="s">
         <v>112</v>
       </c>
@@ -3077,7 +3136,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="122" spans="4:9">
+    <row r="122" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>47</v>
       </c>
@@ -3091,7 +3150,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="123" spans="4:9">
+    <row r="123" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>49</v>
       </c>
@@ -3105,7 +3164,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="4:9">
+    <row r="124" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E124" t="s">
         <v>112</v>
       </c>
@@ -3119,7 +3178,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="4:9">
+    <row r="125" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E125" t="s">
         <v>112</v>
       </c>
@@ -3133,7 +3192,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="4:9">
+    <row r="126" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
         <v>47</v>
       </c>
@@ -3147,7 +3206,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="4:9">
+    <row r="127" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>49</v>
       </c>
@@ -3161,7 +3220,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="4:9">
+    <row r="128" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E128" t="s">
         <v>112</v>
       </c>
@@ -3175,7 +3234,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="129" spans="4:9">
+    <row r="129" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>47</v>
       </c>
@@ -3189,7 +3248,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="130" spans="4:9">
+    <row r="130" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
         <v>49</v>
       </c>
@@ -3203,7 +3262,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="131" spans="4:9">
+    <row r="131" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E131" t="s">
         <v>112</v>
       </c>
@@ -3217,7 +3276,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="132" spans="4:9">
+    <row r="132" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>47</v>
       </c>
@@ -3231,7 +3290,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="133" spans="4:9">
+    <row r="133" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>49</v>
       </c>
@@ -3245,7 +3304,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="134" spans="4:9">
+    <row r="134" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>47</v>
       </c>
@@ -3259,7 +3318,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="135" spans="4:9">
+    <row r="135" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>49</v>
       </c>
@@ -3273,7 +3332,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="4:9">
+    <row r="136" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>47</v>
       </c>
@@ -3287,7 +3346,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="137" spans="4:9">
+    <row r="137" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
         <v>49</v>
       </c>
@@ -3301,7 +3360,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="138" spans="4:9">
+    <row r="138" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E138" t="s">
         <v>112</v>
       </c>
@@ -3315,7 +3374,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="139" spans="4:9">
+    <row r="139" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>47</v>
       </c>
@@ -3329,7 +3388,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="140" spans="4:9">
+    <row r="140" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
         <v>49</v>
       </c>
@@ -3343,7 +3402,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="141" spans="4:9">
+    <row r="141" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E141" t="s">
         <v>112</v>
       </c>
@@ -3357,7 +3416,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="142" spans="4:9">
+    <row r="142" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
         <v>47</v>
       </c>
@@ -3371,7 +3430,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="143" spans="4:9">
+    <row r="143" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>49</v>
       </c>
@@ -3385,7 +3444,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="144" spans="4:9">
+    <row r="144" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E144" t="s">
         <v>112</v>
       </c>
@@ -3399,7 +3458,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="4:9">
+    <row r="145" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E145" t="s">
         <v>112</v>
       </c>
@@ -3413,7 +3472,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="146" spans="4:9">
+    <row r="146" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>47</v>
       </c>
@@ -3427,7 +3486,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="147" spans="4:9">
+    <row r="147" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
         <v>49</v>
       </c>
@@ -3441,7 +3500,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="148" spans="4:9">
+    <row r="148" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E148" t="s">
         <v>112</v>
       </c>
@@ -3455,7 +3514,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="149" spans="4:9">
+    <row r="149" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
         <v>47</v>
       </c>
@@ -3469,7 +3528,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="150" spans="4:9">
+    <row r="150" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>49</v>
       </c>
@@ -3483,7 +3542,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="151" spans="4:9">
+    <row r="151" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>47</v>
       </c>
@@ -3497,7 +3556,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="4:9">
+    <row r="152" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
         <v>49</v>
       </c>
@@ -3511,7 +3570,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="153" spans="4:9">
+    <row r="153" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
         <v>47</v>
       </c>
@@ -3525,7 +3584,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="154" spans="4:9">
+    <row r="154" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
         <v>49</v>
       </c>
@@ -3539,7 +3598,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="155" spans="4:9">
+    <row r="155" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E155" t="s">
         <v>112</v>
       </c>
@@ -3553,7 +3612,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="156" spans="4:9">
+    <row r="156" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E156" t="s">
         <v>112</v>
       </c>
@@ -3567,7 +3626,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="157" spans="4:9">
+    <row r="157" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E157" t="s">
         <v>112</v>
       </c>
@@ -3581,7 +3640,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="4:9">
+    <row r="158" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E158" t="s">
         <v>112</v>
       </c>
@@ -3595,7 +3654,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="159" spans="4:9">
+    <row r="159" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E159" t="s">
         <v>112</v>
       </c>
@@ -3609,7 +3668,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="160" spans="4:9">
+    <row r="160" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>47</v>
       </c>
@@ -3623,7 +3682,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="161" spans="3:9">
+    <row r="161" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
         <v>49</v>
       </c>
@@ -3637,7 +3696,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="162" spans="3:9">
+    <row r="162" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E162" t="s">
         <v>112</v>
       </c>
@@ -3651,7 +3710,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="163" spans="3:9">
+    <row r="163" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>47</v>
       </c>
@@ -3665,7 +3724,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="164" spans="3:9">
+    <row r="164" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>49</v>
       </c>
@@ -3679,7 +3738,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="165" spans="3:9">
+    <row r="165" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>47</v>
       </c>
@@ -3693,7 +3752,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="166" spans="3:9">
+    <row r="166" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>49</v>
       </c>
@@ -3707,7 +3766,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="167" spans="3:9">
+    <row r="167" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>47</v>
       </c>
@@ -3721,7 +3780,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="168" spans="3:9">
+    <row r="168" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>49</v>
       </c>
@@ -3735,7 +3794,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="169" spans="3:9">
+    <row r="169" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
         <v>47</v>
       </c>
@@ -3749,7 +3808,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="170" spans="3:9">
+    <row r="170" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
         <v>49</v>
       </c>
@@ -3763,7 +3822,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="171" spans="3:9">
+    <row r="171" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
         <v>47</v>
       </c>
@@ -3777,7 +3836,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="172" spans="3:9">
+    <row r="172" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
         <v>49</v>
       </c>
@@ -3791,7 +3850,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="173" spans="3:9">
+    <row r="173" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C173" t="s">
         <v>43</v>
       </c>
@@ -3805,7 +3864,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="174" spans="3:9">
+    <row r="174" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C174" t="s">
         <v>45</v>
       </c>
@@ -3819,7 +3878,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="175" spans="3:9">
+    <row r="175" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
         <v>20</v>
       </c>
@@ -3833,7 +3892,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="176" spans="3:9">
+    <row r="176" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
         <v>102</v>
       </c>
@@ -3847,7 +3906,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="177" spans="4:9">
+    <row r="177" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
         <v>104</v>
       </c>
@@ -3861,7 +3920,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="178" spans="4:9">
+    <row r="178" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D178" t="s">
         <v>102</v>
       </c>
@@ -3875,7 +3934,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="179" spans="4:9">
+    <row r="179" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>104</v>
       </c>
@@ -3889,7 +3948,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="180" spans="4:9">
+    <row r="180" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
         <v>102</v>
       </c>
@@ -3903,7 +3962,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="181" spans="4:9">
+    <row r="181" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>104</v>
       </c>
@@ -3917,7 +3976,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="182" spans="4:9">
+    <row r="182" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D182" t="s">
         <v>47</v>
       </c>
@@ -3931,7 +3990,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="183" spans="4:9">
+    <row r="183" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D183" t="s">
         <v>49</v>
       </c>
@@ -3945,7 +4004,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="184" spans="4:9">
+    <row r="184" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D184" t="s">
         <v>47</v>
       </c>
@@ -3959,7 +4018,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="185" spans="4:9">
+    <row r="185" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D185" t="s">
         <v>49</v>
       </c>
@@ -3973,7 +4032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="4:9">
+    <row r="186" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D186" t="s">
         <v>47</v>
       </c>
@@ -3987,7 +4046,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="187" spans="4:9">
+    <row r="187" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>49</v>
       </c>
@@ -4001,7 +4060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="188" spans="4:9">
+    <row r="188" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>47</v>
       </c>
@@ -4015,7 +4074,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="189" spans="4:9">
+    <row r="189" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>49</v>
       </c>
@@ -4029,7 +4088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="190" spans="4:9">
+    <row r="190" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E190" t="s">
         <v>112</v>
       </c>
@@ -4043,7 +4102,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="191" spans="4:9">
+    <row r="191" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D191" t="s">
         <v>47</v>
       </c>
@@ -4057,7 +4116,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="192" spans="4:9">
+    <row r="192" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D192" t="s">
         <v>49</v>
       </c>
@@ -4071,7 +4130,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="193" spans="3:9">
+    <row r="193" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E193" t="s">
         <v>112</v>
       </c>
@@ -4085,7 +4144,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="194" spans="3:9">
+    <row r="194" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E194" t="s">
         <v>112</v>
       </c>
@@ -4099,7 +4158,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="195" spans="3:9">
+    <row r="195" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D195" t="s">
         <v>47</v>
       </c>
@@ -4113,7 +4172,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="196" spans="3:9">
+    <row r="196" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D196" t="s">
         <v>49</v>
       </c>
@@ -4127,7 +4186,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="197" spans="3:9">
+    <row r="197" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D197" t="s">
         <v>47</v>
       </c>
@@ -4141,7 +4200,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="198" spans="3:9">
+    <row r="198" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D198" t="s">
         <v>49</v>
       </c>
@@ -4155,7 +4214,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="199" spans="3:9">
+    <row r="199" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E199" t="s">
         <v>112</v>
       </c>
@@ -4169,7 +4228,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="200" spans="3:9">
+    <row r="200" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C200" t="s">
         <v>43</v>
       </c>
@@ -4183,7 +4242,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="201" spans="3:9">
+    <row r="201" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C201" t="s">
         <v>45</v>
       </c>
@@ -4197,7 +4256,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="202" spans="3:9">
+    <row r="202" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D202" t="s">
         <v>151</v>
       </c>
@@ -4211,7 +4270,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="203" spans="3:9">
+    <row r="203" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D203" t="s">
         <v>102</v>
       </c>
@@ -4225,7 +4284,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="204" spans="3:9">
+    <row r="204" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D204" t="s">
         <v>104</v>
       </c>
@@ -4239,7 +4298,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="205" spans="3:9">
+    <row r="205" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D205" t="s">
         <v>102</v>
       </c>
@@ -4253,7 +4312,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="206" spans="3:9">
+    <row r="206" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D206" t="s">
         <v>104</v>
       </c>
@@ -4267,7 +4326,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="207" spans="3:9">
+    <row r="207" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D207" t="s">
         <v>102</v>
       </c>
@@ -4281,7 +4340,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="208" spans="3:9">
+    <row r="208" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D208" t="s">
         <v>104</v>
       </c>
@@ -4295,7 +4354,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="209" spans="3:9">
+    <row r="209" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D209" t="s">
         <v>102</v>
       </c>
@@ -4309,7 +4368,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="210" spans="3:9">
+    <row r="210" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>104</v>
       </c>
@@ -4323,7 +4382,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="211" spans="3:9">
+    <row r="211" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>47</v>
       </c>
@@ -4337,7 +4396,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="212" spans="3:9">
+    <row r="212" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>49</v>
       </c>
@@ -4351,7 +4410,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="213" spans="3:9">
+    <row r="213" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C213" t="s">
         <v>43</v>
       </c>
@@ -4365,7 +4424,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="214" spans="3:9">
+    <row r="214" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C214" t="s">
         <v>45</v>
       </c>
@@ -4379,7 +4438,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="215" spans="3:9">
+    <row r="215" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D215" t="s">
         <v>151</v>
       </c>
@@ -4393,7 +4452,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="216" spans="3:9">
+    <row r="216" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D216" t="s">
         <v>47</v>
       </c>
@@ -4407,7 +4466,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="217" spans="3:9">
+    <row r="217" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D217" t="s">
         <v>49</v>
       </c>
@@ -4421,7 +4480,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="218" spans="3:9">
+    <row r="218" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E218" t="s">
         <v>112</v>
       </c>
@@ -4435,7 +4494,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="219" spans="3:9">
+    <row r="219" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>47</v>
       </c>
@@ -4449,7 +4508,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="220" spans="3:9">
+    <row r="220" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>49</v>
       </c>
@@ -4463,7 +4522,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="221" spans="3:9">
+    <row r="221" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C221" t="s">
         <v>43</v>
       </c>
@@ -4477,7 +4536,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="222" spans="3:9">
+    <row r="222" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C222" t="s">
         <v>45</v>
       </c>
@@ -4491,7 +4550,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="223" spans="3:9">
+    <row r="223" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D223" t="s">
         <v>20</v>
       </c>
@@ -4505,7 +4564,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="224" spans="3:9">
+    <row r="224" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D224" t="s">
         <v>151</v>
       </c>
@@ -4519,7 +4578,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="225" spans="3:9">
+    <row r="225" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>47</v>
       </c>
@@ -4533,7 +4592,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="226" spans="3:9">
+    <row r="226" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>49</v>
       </c>
@@ -4547,7 +4606,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="227" spans="3:9">
+    <row r="227" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D227" t="s">
         <v>47</v>
       </c>
@@ -4561,7 +4620,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="228" spans="3:9">
+    <row r="228" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D228" t="s">
         <v>49</v>
       </c>
@@ -4575,7 +4634,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="229" spans="3:9">
+    <row r="229" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E229" t="s">
         <v>112</v>
       </c>
@@ -4589,7 +4648,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="230" spans="3:9">
+    <row r="230" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D230" t="s">
         <v>47</v>
       </c>
@@ -4603,7 +4662,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="231" spans="3:9">
+    <row r="231" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D231" t="s">
         <v>49</v>
       </c>
@@ -4617,7 +4676,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="232" spans="3:9">
+    <row r="232" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E232" t="s">
         <v>112</v>
       </c>
@@ -4631,7 +4690,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="233" spans="3:9">
+    <row r="233" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>47</v>
       </c>
@@ -4645,7 +4704,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="234" spans="3:9">
+    <row r="234" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
         <v>49</v>
       </c>
@@ -4659,7 +4718,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="235" spans="3:9">
+    <row r="235" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E235" t="s">
         <v>112</v>
       </c>
@@ -4673,7 +4732,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="236" spans="3:9">
+    <row r="236" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C236" t="s">
         <v>43</v>
       </c>
@@ -4687,7 +4746,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="237" spans="3:9">
+    <row r="237" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C237" t="s">
         <v>45</v>
       </c>
@@ -4701,7 +4760,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="238" spans="3:9">
+    <row r="238" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D238" t="s">
         <v>20</v>
       </c>
@@ -4715,7 +4774,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="239" spans="3:9">
+    <row r="239" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D239" t="s">
         <v>151</v>
       </c>
@@ -4729,7 +4788,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="240" spans="3:9">
+    <row r="240" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D240" t="s">
         <v>47</v>
       </c>
@@ -4743,7 +4802,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="241" spans="4:9">
+    <row r="241" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D241" t="s">
         <v>49</v>
       </c>
@@ -4757,7 +4816,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="242" spans="4:9">
+    <row r="242" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E242" t="s">
         <v>112</v>
       </c>
@@ -4771,7 +4830,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="243" spans="4:9">
+    <row r="243" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D243" t="s">
         <v>47</v>
       </c>
@@ -4785,7 +4844,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="244" spans="4:9">
+    <row r="244" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D244" t="s">
         <v>49</v>
       </c>
@@ -4799,7 +4858,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="245" spans="4:9">
+    <row r="245" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D245" t="s">
         <v>47</v>
       </c>
@@ -4813,7 +4872,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="246" spans="4:9">
+    <row r="246" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D246" t="s">
         <v>49</v>
       </c>
@@ -4827,7 +4886,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="247" spans="4:9">
+    <row r="247" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D247" t="s">
         <v>47</v>
       </c>
@@ -4841,7 +4900,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="248" spans="4:9">
+    <row r="248" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D248" t="s">
         <v>49</v>
       </c>
@@ -4855,7 +4914,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="249" spans="4:9">
+    <row r="249" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E249" t="s">
         <v>112</v>
       </c>
@@ -4869,7 +4928,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="250" spans="4:9">
+    <row r="250" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D250" t="s">
         <v>47</v>
       </c>
@@ -4883,7 +4942,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="251" spans="4:9">
+    <row r="251" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D251" t="s">
         <v>49</v>
       </c>
@@ -4897,7 +4956,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="252" spans="4:9">
+    <row r="252" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E252" t="s">
         <v>112</v>
       </c>
@@ -4911,7 +4970,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="253" spans="4:9">
+    <row r="253" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D253" t="s">
         <v>47</v>
       </c>
@@ -4925,7 +4984,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="254" spans="4:9">
+    <row r="254" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D254" t="s">
         <v>49</v>
       </c>
@@ -4939,7 +4998,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="255" spans="4:9">
+    <row r="255" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E255" t="s">
         <v>112</v>
       </c>
@@ -4953,7 +5012,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="256" spans="4:9">
+    <row r="256" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D256" t="s">
         <v>47</v>
       </c>
@@ -4967,7 +5026,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="257" spans="3:9">
+    <row r="257" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D257" t="s">
         <v>49</v>
       </c>
@@ -4981,7 +5040,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="258" spans="3:9">
+    <row r="258" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C258" t="s">
         <v>43</v>
       </c>
@@ -4995,7 +5054,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="259" spans="3:9">
+    <row r="259" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C259" t="s">
         <v>45</v>
       </c>
@@ -5009,7 +5068,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="260" spans="3:9">
+    <row r="260" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D260" t="s">
         <v>20</v>
       </c>
@@ -5023,7 +5082,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="261" spans="3:9">
+    <row r="261" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D261" t="s">
         <v>47</v>
       </c>
@@ -5037,7 +5096,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="262" spans="3:9">
+    <row r="262" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D262" t="s">
         <v>49</v>
       </c>
@@ -5051,7 +5110,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="263" spans="3:9">
+    <row r="263" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E263" t="s">
         <v>112</v>
       </c>
@@ -5065,7 +5124,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="264" spans="3:9">
+    <row r="264" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E264" t="s">
         <v>112</v>
       </c>
@@ -5079,7 +5138,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="265" spans="3:9">
+    <row r="265" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E265" t="s">
         <v>112</v>
       </c>
@@ -5093,7 +5152,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="266" spans="3:9">
+    <row r="266" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E266" t="s">
         <v>112</v>
       </c>
@@ -5107,7 +5166,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="267" spans="3:9">
+    <row r="267" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C267" t="s">
         <v>43</v>
       </c>
@@ -5121,7 +5180,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="268" spans="3:9">
+    <row r="268" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C268" t="s">
         <v>45</v>
       </c>
@@ -5135,7 +5194,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="269" spans="3:9">
+    <row r="269" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D269" t="s">
         <v>151</v>
       </c>
@@ -5149,7 +5208,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="270" spans="3:9">
+    <row r="270" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D270" t="s">
         <v>47</v>
       </c>
@@ -5163,7 +5222,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="271" spans="3:9">
+    <row r="271" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D271" t="s">
         <v>49</v>
       </c>
@@ -5177,7 +5236,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="272" spans="3:9">
+    <row r="272" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E272" t="s">
         <v>112</v>
       </c>
@@ -5191,7 +5250,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="273" spans="3:9">
+    <row r="273" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C273" t="s">
         <v>43</v>
       </c>
@@ -5205,7 +5264,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="274" spans="3:9">
+    <row r="274" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C274" t="s">
         <v>45</v>
       </c>
@@ -5219,7 +5278,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="275" spans="3:9">
+    <row r="275" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D275" t="s">
         <v>151</v>
       </c>
@@ -5233,7 +5292,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="276" spans="3:9">
+    <row r="276" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C276" t="s">
         <v>43</v>
       </c>
@@ -5247,7 +5306,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="277" spans="3:9">
+    <row r="277" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C277" t="s">
         <v>45</v>
       </c>
@@ -5261,7 +5320,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="278" spans="3:9">
+    <row r="278" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D278" t="s">
         <v>20</v>
       </c>
@@ -5275,7 +5334,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="279" spans="3:9">
+    <row r="279" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D279" t="s">
         <v>47</v>
       </c>
@@ -5289,7 +5348,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="280" spans="3:9">
+    <row r="280" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D280" t="s">
         <v>49</v>
       </c>
@@ -5303,7 +5362,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="281" spans="3:9">
+    <row r="281" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E281" t="s">
         <v>112</v>
       </c>
@@ -5317,7 +5376,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="282" spans="3:9">
+    <row r="282" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C282" t="s">
         <v>43</v>
       </c>
@@ -5331,7 +5390,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="283" spans="3:9">
+    <row r="283" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C283" t="s">
         <v>45</v>
       </c>
@@ -5345,7 +5404,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="284" spans="3:9">
+    <row r="284" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D284" t="s">
         <v>20</v>
       </c>
@@ -5359,7 +5418,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="285" spans="3:9">
+    <row r="285" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D285" t="s">
         <v>47</v>
       </c>
@@ -5373,7 +5432,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="286" spans="3:9">
+    <row r="286" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D286" t="s">
         <v>49</v>
       </c>
@@ -5387,7 +5446,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="287" spans="3:9">
+    <row r="287" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C287" t="s">
         <v>43</v>
       </c>
@@ -5401,7 +5460,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="288" spans="3:9">
+    <row r="288" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C288" t="s">
         <v>45</v>
       </c>
@@ -5415,7 +5474,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="289" spans="3:9">
+    <row r="289" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D289" t="s">
         <v>102</v>
       </c>
@@ -5429,7 +5488,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="290" spans="3:9">
+    <row r="290" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D290" t="s">
         <v>104</v>
       </c>
@@ -5443,7 +5502,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="291" spans="3:9">
+    <row r="291" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C291" t="s">
         <v>43</v>
       </c>
@@ -5457,7 +5516,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="292" spans="3:9">
+    <row r="292" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C292" t="s">
         <v>45</v>
       </c>
@@ -5471,7 +5530,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="293" spans="3:9">
+    <row r="293" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D293" t="s">
         <v>20</v>
       </c>
@@ -5485,7 +5544,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="294" spans="3:9">
+    <row r="294" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D294" t="s">
         <v>20</v>
       </c>
@@ -5499,7 +5558,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="295" spans="3:9">
+    <row r="295" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D295" t="s">
         <v>102</v>
       </c>
@@ -5513,7 +5572,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="296" spans="3:9">
+    <row r="296" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D296" t="s">
         <v>104</v>
       </c>
@@ -5527,7 +5586,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="297" spans="3:9">
+    <row r="297" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D297" t="s">
         <v>102</v>
       </c>
@@ -5541,7 +5600,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="298" spans="3:9">
+    <row r="298" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D298" t="s">
         <v>104</v>
       </c>
@@ -5555,7 +5614,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="299" spans="3:9">
+    <row r="299" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D299" t="s">
         <v>47</v>
       </c>
@@ -5569,7 +5628,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="300" spans="3:9">
+    <row r="300" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D300" t="s">
         <v>49</v>
       </c>
@@ -5583,7 +5642,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="301" spans="3:9">
+    <row r="301" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E301" t="s">
         <v>112</v>
       </c>
@@ -5597,7 +5656,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="3:9">
+    <row r="302" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D302" t="s">
         <v>47</v>
       </c>
@@ -5611,7 +5670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="303" spans="3:9">
+    <row r="303" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D303" t="s">
         <v>49</v>
       </c>
@@ -5625,7 +5684,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="304" spans="3:9">
+    <row r="304" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D304" t="s">
         <v>47</v>
       </c>
@@ -5639,7 +5698,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="305" spans="3:9">
+    <row r="305" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D305" t="s">
         <v>49</v>
       </c>
@@ -5653,7 +5712,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="306" spans="3:9">
+    <row r="306" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E306" t="s">
         <v>112</v>
       </c>
@@ -5667,7 +5726,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="307" spans="3:9">
+    <row r="307" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D307" t="s">
         <v>47</v>
       </c>
@@ -5681,7 +5740,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="308" spans="3:9">
+    <row r="308" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D308" t="s">
         <v>49</v>
       </c>
@@ -5695,7 +5754,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="309" spans="3:9">
+    <row r="309" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C309" t="s">
         <v>43</v>
       </c>
@@ -5709,7 +5768,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="310" spans="3:9">
+    <row r="310" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C310" t="s">
         <v>45</v>
       </c>
@@ -5723,7 +5782,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="311" spans="3:9">
+    <row r="311" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D311" t="s">
         <v>47</v>
       </c>
@@ -5737,7 +5796,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="312" spans="3:9">
+    <row r="312" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D312" t="s">
         <v>49</v>
       </c>
@@ -5751,7 +5810,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="313" spans="3:9">
+    <row r="313" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C313" t="s">
         <v>43</v>
       </c>
@@ -5765,7 +5824,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="314" spans="3:9">
+    <row r="314" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C314" t="s">
         <v>45</v>
       </c>
@@ -5779,7 +5838,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="315" spans="3:9">
+    <row r="315" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D315" t="s">
         <v>20</v>
       </c>
@@ -5793,7 +5852,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="316" spans="3:9">
+    <row r="316" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D316" t="s">
         <v>151</v>
       </c>
@@ -5807,7 +5866,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="317" spans="3:9">
+    <row r="317" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D317" t="s">
         <v>47</v>
       </c>
@@ -5821,7 +5880,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="318" spans="3:9">
+    <row r="318" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D318" t="s">
         <v>49</v>
       </c>
@@ -5835,7 +5894,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="319" spans="3:9">
+    <row r="319" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E319" t="s">
         <v>112</v>
       </c>
@@ -5849,7 +5908,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="320" spans="3:9">
+    <row r="320" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D320" t="s">
         <v>47</v>
       </c>
@@ -5863,7 +5922,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="321" spans="3:9">
+    <row r="321" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D321" t="s">
         <v>49</v>
       </c>
@@ -5877,7 +5936,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="322" spans="3:9">
+    <row r="322" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E322" t="s">
         <v>112</v>
       </c>
@@ -5891,7 +5950,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="323" spans="3:9">
+    <row r="323" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D323" t="s">
         <v>47</v>
       </c>
@@ -5905,7 +5964,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="324" spans="3:9">
+    <row r="324" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D324" t="s">
         <v>49</v>
       </c>
@@ -5919,7 +5978,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="325" spans="3:9">
+    <row r="325" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E325" t="s">
         <v>112</v>
       </c>
@@ -5933,7 +5992,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="326" spans="3:9">
+    <row r="326" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C326" t="s">
         <v>43</v>
       </c>
@@ -5947,7 +6006,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="327" spans="3:9">
+    <row r="327" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C327" t="s">
         <v>45</v>
       </c>
@@ -5961,7 +6020,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="328" spans="3:9">
+    <row r="328" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D328" t="s">
         <v>20</v>
       </c>
@@ -5975,7 +6034,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="329" spans="3:9">
+    <row r="329" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D329" t="s">
         <v>151</v>
       </c>
@@ -5989,7 +6048,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="330" spans="3:9">
+    <row r="330" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D330" t="s">
         <v>47</v>
       </c>
@@ -6003,7 +6062,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="331" spans="3:9">
+    <row r="331" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D331" t="s">
         <v>49</v>
       </c>
@@ -6017,7 +6076,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="332" spans="3:9">
+    <row r="332" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E332" t="s">
         <v>112</v>
       </c>
@@ -6031,7 +6090,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="333" spans="3:9">
+    <row r="333" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D333" t="s">
         <v>47</v>
       </c>
@@ -6045,7 +6104,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="334" spans="3:9">
+    <row r="334" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D334" t="s">
         <v>49</v>
       </c>
@@ -6059,7 +6118,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="335" spans="3:9">
+    <row r="335" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E335" t="s">
         <v>112</v>
       </c>
@@ -6073,7 +6132,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="336" spans="3:9">
+    <row r="336" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D336" t="s">
         <v>47</v>
       </c>
@@ -6087,7 +6146,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="337" spans="3:9">
+    <row r="337" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D337" t="s">
         <v>49</v>
       </c>
@@ -6101,7 +6160,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="338" spans="3:9">
+    <row r="338" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E338" t="s">
         <v>112</v>
       </c>
@@ -6115,7 +6174,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="339" spans="3:9">
+    <row r="339" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C339" t="s">
         <v>43</v>
       </c>
@@ -6129,7 +6188,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="340" spans="3:9">
+    <row r="340" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C340" t="s">
         <v>45</v>
       </c>
@@ -6143,7 +6202,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="341" spans="3:9">
+    <row r="341" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D341" t="s">
         <v>151</v>
       </c>
@@ -6157,7 +6216,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="342" spans="3:9">
+    <row r="342" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D342" t="s">
         <v>47</v>
       </c>
@@ -6171,7 +6230,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="343" spans="3:9">
+    <row r="343" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D343" t="s">
         <v>49</v>
       </c>
@@ -6185,7 +6244,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="344" spans="3:9">
+    <row r="344" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E344" t="s">
         <v>112</v>
       </c>
@@ -6199,7 +6258,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="345" spans="3:9">
+    <row r="345" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C345" t="s">
         <v>43</v>
       </c>
@@ -6213,7 +6272,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="346" spans="3:9">
+    <row r="346" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C346" t="s">
         <v>45</v>
       </c>
@@ -6227,7 +6286,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="347" spans="3:9">
+    <row r="347" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D347" t="s">
         <v>20</v>
       </c>
@@ -6241,7 +6300,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="348" spans="3:9">
+    <row r="348" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D348" t="s">
         <v>20</v>
       </c>
@@ -6255,7 +6314,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="349" spans="3:9">
+    <row r="349" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D349" t="s">
         <v>20</v>
       </c>
@@ -6269,7 +6328,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="350" spans="3:9">
+    <row r="350" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D350" t="s">
         <v>47</v>
       </c>
@@ -6283,7 +6342,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="351" spans="3:9">
+    <row r="351" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D351" t="s">
         <v>49</v>
       </c>
@@ -6297,7 +6356,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="352" spans="3:9">
+    <row r="352" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E352" t="s">
         <v>112</v>
       </c>
@@ -6311,7 +6370,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="353" spans="3:9">
+    <row r="353" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E353" t="s">
         <v>112</v>
       </c>
@@ -6325,7 +6384,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="354" spans="3:9">
+    <row r="354" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E354" t="s">
         <v>112</v>
       </c>
@@ -6339,7 +6398,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="355" spans="3:9">
+    <row r="355" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D355" t="s">
         <v>47</v>
       </c>
@@ -6353,7 +6412,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="356" spans="3:9">
+    <row r="356" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D356" t="s">
         <v>49</v>
       </c>
@@ -6367,7 +6426,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="357" spans="3:9">
+    <row r="357" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E357" t="s">
         <v>112</v>
       </c>
@@ -6381,7 +6440,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="358" spans="3:9">
+    <row r="358" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D358" t="s">
         <v>47</v>
       </c>
@@ -6395,7 +6454,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="359" spans="3:9">
+    <row r="359" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D359" t="s">
         <v>49</v>
       </c>
@@ -6409,7 +6468,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="360" spans="3:9">
+    <row r="360" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E360" t="s">
         <v>112</v>
       </c>
@@ -6423,7 +6482,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="361" spans="3:9">
+    <row r="361" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D361" t="s">
         <v>47</v>
       </c>
@@ -6437,7 +6496,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="3:9">
+    <row r="362" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D362" t="s">
         <v>49</v>
       </c>
@@ -6451,7 +6510,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="363" spans="3:9">
+    <row r="363" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D363" t="s">
         <v>47</v>
       </c>
@@ -6465,7 +6524,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="364" spans="3:9">
+    <row r="364" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D364" t="s">
         <v>49</v>
       </c>
@@ -6479,7 +6538,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="365" spans="3:9">
+    <row r="365" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C365" t="s">
         <v>43</v>
       </c>
@@ -6493,7 +6552,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="366" spans="3:9">
+    <row r="366" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C366" t="s">
         <v>45</v>
       </c>
@@ -6507,7 +6566,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="367" spans="3:9">
+    <row r="367" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D367" t="s">
         <v>20</v>
       </c>
@@ -6521,7 +6580,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="368" spans="3:9">
+    <row r="368" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D368" t="s">
         <v>20</v>
       </c>
@@ -6535,7 +6594,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="369" spans="3:9">
+    <row r="369" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D369" t="s">
         <v>151</v>
       </c>
@@ -6549,7 +6608,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="370" spans="3:9">
+    <row r="370" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D370" t="s">
         <v>47</v>
       </c>
@@ -6563,7 +6622,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="371" spans="3:9">
+    <row r="371" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D371" t="s">
         <v>49</v>
       </c>
@@ -6577,7 +6636,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="372" spans="3:9">
+    <row r="372" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E372" t="s">
         <v>112</v>
       </c>
@@ -6591,7 +6650,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="373" spans="3:9">
+    <row r="373" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E373" t="s">
         <v>112</v>
       </c>
@@ -6605,7 +6664,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="374" spans="3:9">
+    <row r="374" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D374" t="s">
         <v>47</v>
       </c>
@@ -6619,7 +6678,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="375" spans="3:9">
+    <row r="375" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D375" t="s">
         <v>49</v>
       </c>
@@ -6633,7 +6692,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="376" spans="3:9">
+    <row r="376" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C376" t="s">
         <v>43</v>
       </c>
@@ -6647,7 +6706,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="377" spans="3:9">
+    <row r="377" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C377" t="s">
         <v>45</v>
       </c>
@@ -6661,7 +6720,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="378" spans="3:9">
+    <row r="378" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D378" t="s">
         <v>20</v>
       </c>
@@ -6675,7 +6734,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="379" spans="3:9">
+    <row r="379" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D379" t="s">
         <v>20</v>
       </c>
@@ -6689,7 +6748,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="380" spans="3:9">
+    <row r="380" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D380" t="s">
         <v>47</v>
       </c>
@@ -6703,7 +6762,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="381" spans="3:9">
+    <row r="381" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D381" t="s">
         <v>49</v>
       </c>
@@ -6717,7 +6776,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="382" spans="3:9">
+    <row r="382" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E382" t="s">
         <v>112</v>
       </c>
@@ -6731,7 +6790,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="383" spans="3:9">
+    <row r="383" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E383" t="s">
         <v>112</v>
       </c>
@@ -6745,7 +6804,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="384" spans="3:9">
+    <row r="384" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E384" t="s">
         <v>112</v>
       </c>
@@ -6759,7 +6818,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="385" spans="3:9">
+    <row r="385" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E385" t="s">
         <v>112</v>
       </c>
@@ -6773,7 +6832,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="386" spans="3:9">
+    <row r="386" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E386" t="s">
         <v>112</v>
       </c>
@@ -6787,7 +6846,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="387" spans="3:9">
+    <row r="387" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E387" t="s">
         <v>112</v>
       </c>
@@ -6801,7 +6860,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="388" spans="3:9">
+    <row r="388" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E388" t="s">
         <v>112</v>
       </c>
@@ -6815,7 +6874,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="389" spans="3:9">
+    <row r="389" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D389" t="s">
         <v>47</v>
       </c>
@@ -6829,7 +6888,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="390" spans="3:9">
+    <row r="390" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D390" t="s">
         <v>49</v>
       </c>
@@ -6843,7 +6902,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="391" spans="3:9">
+    <row r="391" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E391" t="s">
         <v>112</v>
       </c>
@@ -6857,7 +6916,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="392" spans="3:9">
+    <row r="392" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D392" t="s">
         <v>47</v>
       </c>
@@ -6871,7 +6930,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="393" spans="3:9">
+    <row r="393" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D393" t="s">
         <v>49</v>
       </c>
@@ -6885,7 +6944,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="394" spans="3:9">
+    <row r="394" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E394" t="s">
         <v>112</v>
       </c>
@@ -6899,7 +6958,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="395" spans="3:9">
+    <row r="395" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C395" t="s">
         <v>43</v>
       </c>
@@ -6913,7 +6972,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="396" spans="3:9">
+    <row r="396" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C396" t="s">
         <v>45</v>
       </c>
@@ -6927,7 +6986,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="397" spans="3:9">
+    <row r="397" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D397" t="s">
         <v>20</v>
       </c>
@@ -6941,7 +7000,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="398" spans="3:9">
+    <row r="398" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D398" t="s">
         <v>47</v>
       </c>
@@ -6955,7 +7014,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="399" spans="3:9">
+    <row r="399" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D399" t="s">
         <v>49</v>
       </c>
@@ -6969,7 +7028,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="400" spans="3:9">
+    <row r="400" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E400" t="s">
         <v>112</v>
       </c>
@@ -6983,7 +7042,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="401" spans="3:9">
+    <row r="401" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E401" t="s">
         <v>112</v>
       </c>
@@ -6997,7 +7056,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="402" spans="3:9">
+    <row r="402" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C402" t="s">
         <v>43</v>
       </c>
@@ -7011,7 +7070,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="403" spans="3:9">
+    <row r="403" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C403" t="s">
         <v>45</v>
       </c>
@@ -7025,7 +7084,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="404" spans="3:9">
+    <row r="404" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D404" t="s">
         <v>20</v>
       </c>
@@ -7039,7 +7098,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="405" spans="3:9">
+    <row r="405" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D405" t="s">
         <v>47</v>
       </c>
@@ -7053,7 +7112,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="406" spans="3:9">
+    <row r="406" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D406" t="s">
         <v>49</v>
       </c>
@@ -7067,7 +7126,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="407" spans="3:9">
+    <row r="407" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E407" t="s">
         <v>112</v>
       </c>
@@ -7081,7 +7140,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="408" spans="3:9">
+    <row r="408" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E408" t="s">
         <v>112</v>
       </c>
@@ -7095,7 +7154,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="409" spans="3:9">
+    <row r="409" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E409" t="s">
         <v>112</v>
       </c>
@@ -7109,7 +7168,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="410" spans="3:9">
+    <row r="410" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C410" t="s">
         <v>43</v>
       </c>
@@ -7123,7 +7182,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="411" spans="3:9">
+    <row r="411" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C411" t="s">
         <v>45</v>
       </c>
@@ -7137,7 +7196,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="412" spans="3:9">
+    <row r="412" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D412" t="s">
         <v>20</v>
       </c>
@@ -7151,7 +7210,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="413" spans="3:9">
+    <row r="413" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D413" t="s">
         <v>20</v>
       </c>
@@ -7165,7 +7224,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="414" spans="3:9">
+    <row r="414" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D414" t="s">
         <v>20</v>
       </c>
@@ -7179,7 +7238,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="415" spans="3:9">
+    <row r="415" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D415" t="s">
         <v>20</v>
       </c>
@@ -7193,7 +7252,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="416" spans="3:9">
+    <row r="416" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D416" t="s">
         <v>151</v>
       </c>
@@ -7207,7 +7266,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="417" spans="3:9">
+    <row r="417" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D417" t="s">
         <v>47</v>
       </c>
@@ -7221,7 +7280,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="418" spans="3:9">
+    <row r="418" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D418" t="s">
         <v>49</v>
       </c>
@@ -7235,7 +7294,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="419" spans="3:9">
+    <row r="419" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E419" t="s">
         <v>112</v>
       </c>
@@ -7249,7 +7308,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="420" spans="3:9">
+    <row r="420" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D420" t="s">
         <v>47</v>
       </c>
@@ -7263,7 +7322,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="421" spans="3:9">
+    <row r="421" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D421" t="s">
         <v>49</v>
       </c>
@@ -7277,7 +7336,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="422" spans="3:9">
+    <row r="422" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D422" t="s">
         <v>47</v>
       </c>
@@ -7291,7 +7350,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="423" spans="3:9">
+    <row r="423" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D423" t="s">
         <v>49</v>
       </c>
@@ -7305,7 +7364,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="424" spans="3:9">
+    <row r="424" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D424" t="s">
         <v>47</v>
       </c>
@@ -7319,7 +7378,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="425" spans="3:9">
+    <row r="425" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D425" t="s">
         <v>49</v>
       </c>
@@ -7333,7 +7392,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="426" spans="3:9">
+    <row r="426" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E426" t="s">
         <v>112</v>
       </c>
@@ -7347,7 +7406,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="427" spans="3:9">
+    <row r="427" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D427" t="s">
         <v>47</v>
       </c>
@@ -7361,7 +7420,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="428" spans="3:9">
+    <row r="428" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D428" t="s">
         <v>49</v>
       </c>
@@ -7375,7 +7434,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="429" spans="3:9">
+    <row r="429" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D429" t="s">
         <v>47</v>
       </c>
@@ -7389,7 +7448,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="430" spans="3:9">
+    <row r="430" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D430" t="s">
         <v>49</v>
       </c>
@@ -7403,7 +7462,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="431" spans="3:9">
+    <row r="431" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C431" t="s">
         <v>43</v>
       </c>
@@ -7417,7 +7476,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="432" spans="3:9">
+    <row r="432" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C432" t="s">
         <v>45</v>
       </c>
@@ -7431,7 +7490,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="433" spans="3:9">
+    <row r="433" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D433" t="s">
         <v>20</v>
       </c>
@@ -7445,7 +7504,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="434" spans="3:9">
+    <row r="434" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D434" t="s">
         <v>47</v>
       </c>
@@ -7459,7 +7518,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="435" spans="3:9">
+    <row r="435" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D435" t="s">
         <v>49</v>
       </c>
@@ -7473,7 +7532,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="436" spans="3:9">
+    <row r="436" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E436" t="s">
         <v>112</v>
       </c>
@@ -7487,7 +7546,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="437" spans="3:9">
+    <row r="437" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E437" t="s">
         <v>112</v>
       </c>
@@ -7501,7 +7560,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="438" spans="3:9">
+    <row r="438" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C438" t="s">
         <v>43</v>
       </c>
@@ -7515,7 +7574,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="439" spans="3:9">
+    <row r="439" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C439" t="s">
         <v>45</v>
       </c>
@@ -7529,7 +7588,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="440" spans="3:9">
+    <row r="440" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D440" t="s">
         <v>20</v>
       </c>
@@ -7543,7 +7602,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="441" spans="3:9">
+    <row r="441" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D441" t="s">
         <v>47</v>
       </c>
@@ -7557,7 +7616,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="442" spans="3:9">
+    <row r="442" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D442" t="s">
         <v>49</v>
       </c>
@@ -7571,7 +7630,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="443" spans="3:9">
+    <row r="443" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E443" t="s">
         <v>112</v>
       </c>
@@ -7585,7 +7644,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="444" spans="3:9">
+    <row r="444" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E444" t="s">
         <v>112</v>
       </c>
@@ -7599,7 +7658,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="445" spans="3:9">
+    <row r="445" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C445" t="s">
         <v>43</v>
       </c>
@@ -7613,7 +7672,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="446" spans="3:9">
+    <row r="446" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C446" t="s">
         <v>45</v>
       </c>
@@ -7627,7 +7686,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="447" spans="3:9">
+    <row r="447" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D447" t="s">
         <v>20</v>
       </c>
@@ -7641,7 +7700,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="448" spans="3:9">
+    <row r="448" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D448" t="s">
         <v>47</v>
       </c>
@@ -7655,7 +7714,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="449" spans="3:9">
+    <row r="449" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D449" t="s">
         <v>49</v>
       </c>
@@ -7669,7 +7728,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="450" spans="3:9">
+    <row r="450" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E450" t="s">
         <v>112</v>
       </c>
@@ -7683,7 +7742,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="451" spans="3:9">
+    <row r="451" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E451" t="s">
         <v>112</v>
       </c>
@@ -7697,7 +7756,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="452" spans="3:9">
+    <row r="452" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C452" t="s">
         <v>43</v>
       </c>
@@ -7711,7 +7770,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="453" spans="3:9">
+    <row r="453" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C453" t="s">
         <v>45</v>
       </c>
@@ -7725,7 +7784,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="454" spans="3:9">
+    <row r="454" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D454" t="s">
         <v>47</v>
       </c>
@@ -7739,7 +7798,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="455" spans="3:9">
+    <row r="455" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D455" t="s">
         <v>49</v>
       </c>
@@ -7753,7 +7812,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="456" spans="3:9">
+    <row r="456" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E456" t="s">
         <v>112</v>
       </c>
@@ -7767,7 +7826,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="457" spans="3:9">
+    <row r="457" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C457" t="s">
         <v>43</v>
       </c>
@@ -7781,7 +7840,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="458" spans="3:9">
+    <row r="458" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C458" t="s">
         <v>45</v>
       </c>
@@ -7795,7 +7854,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="459" spans="3:9">
+    <row r="459" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D459" t="s">
         <v>20</v>
       </c>
@@ -7809,7 +7868,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="460" spans="3:9">
+    <row r="460" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D460" t="s">
         <v>20</v>
       </c>
@@ -7823,7 +7882,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="461" spans="3:9">
+    <row r="461" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D461" t="s">
         <v>47</v>
       </c>
@@ -7837,7 +7896,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="462" spans="3:9">
+    <row r="462" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D462" t="s">
         <v>49</v>
       </c>
@@ -7851,7 +7910,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="463" spans="3:9">
+    <row r="463" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E463" t="s">
         <v>112</v>
       </c>
@@ -7865,7 +7924,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="464" spans="3:9">
+    <row r="464" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C464" t="s">
         <v>43</v>
       </c>
@@ -7879,7 +7938,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="465" spans="3:9">
+    <row r="465" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C465" t="s">
         <v>45</v>
       </c>
@@ -7893,7 +7952,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="466" spans="3:9">
+    <row r="466" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D466" t="s">
         <v>47</v>
       </c>
@@ -7907,7 +7966,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="467" spans="3:9">
+    <row r="467" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D467" t="s">
         <v>49</v>
       </c>
@@ -7921,7 +7980,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="468" spans="3:9">
+    <row r="468" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E468" t="s">
         <v>112</v>
       </c>
@@ -7935,7 +7994,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="469" spans="3:9">
+    <row r="469" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D469" t="s">
         <v>47</v>
       </c>
@@ -7949,7 +8008,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="470" spans="3:9">
+    <row r="470" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D470" t="s">
         <v>49</v>
       </c>
@@ -7963,7 +8022,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="471" spans="3:9">
+    <row r="471" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C471" t="s">
         <v>43</v>
       </c>
@@ -7977,7 +8036,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="472" spans="3:9">
+    <row r="472" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C472" t="s">
         <v>45</v>
       </c>
@@ -7991,7 +8050,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="473" spans="3:9">
+    <row r="473" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D473" t="s">
         <v>20</v>
       </c>
@@ -8005,7 +8064,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="474" spans="3:9">
+    <row r="474" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D474" t="s">
         <v>20</v>
       </c>
@@ -8019,7 +8078,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="475" spans="3:9">
+    <row r="475" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D475" t="s">
         <v>47</v>
       </c>
@@ -8033,7 +8092,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="476" spans="3:9">
+    <row r="476" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D476" t="s">
         <v>49</v>
       </c>
@@ -8047,7 +8106,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="477" spans="3:9">
+    <row r="477" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D477" t="s">
         <v>47</v>
       </c>
@@ -8061,7 +8120,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="478" spans="3:9">
+    <row r="478" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D478" t="s">
         <v>49</v>
       </c>
@@ -8075,7 +8134,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="479" spans="3:9">
+    <row r="479" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E479" t="s">
         <v>112</v>
       </c>
@@ -8089,7 +8148,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="480" spans="3:9">
+    <row r="480" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D480" t="s">
         <v>47</v>
       </c>
@@ -8103,7 +8162,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="481" spans="3:9">
+    <row r="481" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D481" t="s">
         <v>49</v>
       </c>
@@ -8117,7 +8176,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="482" spans="3:9">
+    <row r="482" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D482" t="s">
         <v>47</v>
       </c>
@@ -8131,7 +8190,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="483" spans="3:9">
+    <row r="483" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D483" t="s">
         <v>49</v>
       </c>
@@ -8145,7 +8204,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="484" spans="3:9">
+    <row r="484" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C484" t="s">
         <v>43</v>
       </c>
@@ -8159,7 +8218,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="485" spans="3:9">
+    <row r="485" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C485" t="s">
         <v>45</v>
       </c>
@@ -8173,7 +8232,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="486" spans="3:9">
+    <row r="486" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D486" t="s">
         <v>47</v>
       </c>
@@ -8187,7 +8246,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="487" spans="3:9">
+    <row r="487" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D487" t="s">
         <v>49</v>
       </c>
@@ -8201,7 +8260,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="488" spans="3:9">
+    <row r="488" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E488" t="s">
         <v>112</v>
       </c>
@@ -8215,7 +8274,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="489" spans="3:9">
+    <row r="489" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C489" t="s">
         <v>43</v>
       </c>
@@ -8229,7 +8288,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="490" spans="3:9">
+    <row r="490" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C490" t="s">
         <v>45</v>
       </c>
@@ -8243,7 +8302,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="491" spans="3:9">
+    <row r="491" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D491" t="s">
         <v>20</v>
       </c>
@@ -8257,7 +8316,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="492" spans="3:9">
+    <row r="492" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D492" t="s">
         <v>20</v>
       </c>
@@ -8271,7 +8330,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="493" spans="3:9">
+    <row r="493" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D493" t="s">
         <v>151</v>
       </c>
@@ -8285,7 +8344,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="494" spans="3:9">
+    <row r="494" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D494" t="s">
         <v>102</v>
       </c>
@@ -8299,7 +8358,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="495" spans="3:9">
+    <row r="495" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D495" t="s">
         <v>104</v>
       </c>
@@ -8313,7 +8372,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="496" spans="3:9">
+    <row r="496" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D496" t="s">
         <v>102</v>
       </c>
@@ -8327,7 +8386,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="497" spans="4:9">
+    <row r="497" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D497" t="s">
         <v>104</v>
       </c>
@@ -8341,7 +8400,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="498" spans="4:9">
+    <row r="498" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D498" t="s">
         <v>102</v>
       </c>
@@ -8355,7 +8414,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="499" spans="4:9">
+    <row r="499" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D499" t="s">
         <v>104</v>
       </c>
@@ -8369,7 +8428,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="500" spans="4:9">
+    <row r="500" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D500" t="s">
         <v>102</v>
       </c>
@@ -8383,7 +8442,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="501" spans="4:9">
+    <row r="501" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D501" t="s">
         <v>104</v>
       </c>
@@ -8397,7 +8456,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="502" spans="4:9">
+    <row r="502" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D502" t="s">
         <v>102</v>
       </c>
@@ -8411,7 +8470,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="503" spans="4:9">
+    <row r="503" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D503" t="s">
         <v>104</v>
       </c>
@@ -8425,7 +8484,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="504" spans="4:9">
+    <row r="504" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D504" t="s">
         <v>47</v>
       </c>
@@ -8439,7 +8498,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="505" spans="4:9">
+    <row r="505" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D505" t="s">
         <v>49</v>
       </c>
@@ -8453,7 +8512,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="506" spans="4:9">
+    <row r="506" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D506" t="s">
         <v>47</v>
       </c>
@@ -8467,7 +8526,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="507" spans="4:9">
+    <row r="507" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D507" t="s">
         <v>49</v>
       </c>
@@ -8481,7 +8540,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="508" spans="4:9">
+    <row r="508" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E508" t="s">
         <v>112</v>
       </c>
@@ -8495,7 +8554,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="509" spans="4:9">
+    <row r="509" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D509" t="s">
         <v>47</v>
       </c>
@@ -8509,7 +8568,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="510" spans="4:9">
+    <row r="510" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D510" t="s">
         <v>49</v>
       </c>
@@ -8523,7 +8582,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="511" spans="4:9">
+    <row r="511" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E511" t="s">
         <v>112</v>
       </c>
@@ -8537,7 +8596,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="512" spans="4:9">
+    <row r="512" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D512" t="s">
         <v>47</v>
       </c>
@@ -8551,7 +8610,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="513" spans="3:9">
+    <row r="513" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D513" t="s">
         <v>49</v>
       </c>
@@ -8565,7 +8624,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="514" spans="3:9">
+    <row r="514" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D514" t="s">
         <v>47</v>
       </c>
@@ -8579,7 +8638,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="515" spans="3:9">
+    <row r="515" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D515" t="s">
         <v>49</v>
       </c>
@@ -8593,7 +8652,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="516" spans="3:9">
+    <row r="516" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D516" t="s">
         <v>47</v>
       </c>
@@ -8607,7 +8666,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="517" spans="3:9">
+    <row r="517" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D517" t="s">
         <v>49</v>
       </c>
@@ -8621,7 +8680,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="518" spans="3:9">
+    <row r="518" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D518" t="s">
         <v>47</v>
       </c>
@@ -8635,7 +8694,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="519" spans="3:9">
+    <row r="519" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D519" t="s">
         <v>49</v>
       </c>
@@ -8649,7 +8708,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="520" spans="3:9">
+    <row r="520" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C520" t="s">
         <v>43</v>
       </c>
@@ -8663,7 +8722,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="521" spans="3:9">
+    <row r="521" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C521" t="s">
         <v>45</v>
       </c>
@@ -8677,7 +8736,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="522" spans="3:9">
+    <row r="522" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D522" t="s">
         <v>47</v>
       </c>
@@ -8691,7 +8750,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="523" spans="3:9">
+    <row r="523" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D523" t="s">
         <v>49</v>
       </c>
@@ -8705,7 +8764,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="524" spans="3:9">
+    <row r="524" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E524" t="s">
         <v>112</v>
       </c>
@@ -8719,7 +8778,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="525" spans="3:9">
+    <row r="525" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D525" t="s">
         <v>47</v>
       </c>
@@ -8733,7 +8792,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="526" spans="3:9">
+    <row r="526" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D526" t="s">
         <v>49</v>
       </c>
@@ -8747,7 +8806,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="527" spans="3:9">
+    <row r="527" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E527" t="s">
         <v>112</v>
       </c>
@@ -8761,7 +8820,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="528" spans="3:9">
+    <row r="528" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D528" t="s">
         <v>47</v>
       </c>
@@ -8775,7 +8834,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="529" spans="3:9">
+    <row r="529" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D529" t="s">
         <v>49</v>
       </c>
@@ -8789,7 +8848,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="530" spans="3:9">
+    <row r="530" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C530" t="s">
         <v>43</v>
       </c>
@@ -8803,7 +8862,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="531" spans="3:9">
+    <row r="531" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C531" t="s">
         <v>45</v>
       </c>
@@ -8817,7 +8876,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="532" spans="3:9">
+    <row r="532" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D532" t="s">
         <v>20</v>
       </c>
@@ -8831,7 +8890,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="533" spans="3:9">
+    <row r="533" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D533" t="s">
         <v>20</v>
       </c>
@@ -8845,7 +8904,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="534" spans="3:9">
+    <row r="534" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D534" t="s">
         <v>47</v>
       </c>
@@ -8859,7 +8918,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="535" spans="3:9">
+    <row r="535" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D535" t="s">
         <v>49</v>
       </c>
@@ -8873,7 +8932,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="536" spans="3:9">
+    <row r="536" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D536" t="s">
         <v>47</v>
       </c>
@@ -8887,7 +8946,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="537" spans="3:9">
+    <row r="537" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D537" t="s">
         <v>49</v>
       </c>
@@ -8901,7 +8960,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="538" spans="3:9">
+    <row r="538" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E538" t="s">
         <v>112</v>
       </c>
@@ -8915,7 +8974,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="539" spans="3:9">
+    <row r="539" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D539" t="s">
         <v>47</v>
       </c>
@@ -8929,7 +8988,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="540" spans="3:9">
+    <row r="540" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D540" t="s">
         <v>49</v>
       </c>
@@ -8943,7 +9002,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="541" spans="3:9">
+    <row r="541" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D541" t="s">
         <v>47</v>
       </c>
@@ -8957,7 +9016,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="542" spans="3:9">
+    <row r="542" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D542" t="s">
         <v>49</v>
       </c>
@@ -8971,7 +9030,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="543" spans="3:9">
+    <row r="543" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C543" t="s">
         <v>43</v>
       </c>
@@ -8985,7 +9044,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="544" spans="3:9">
+    <row r="544" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C544" t="s">
         <v>45</v>
       </c>
@@ -8999,7 +9058,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="545" spans="3:9">
+    <row r="545" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D545" t="s">
         <v>47</v>
       </c>
@@ -9013,7 +9072,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="546" spans="3:9">
+    <row r="546" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D546" t="s">
         <v>49</v>
       </c>
@@ -9027,7 +9086,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="547" spans="3:9">
+    <row r="547" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E547" t="s">
         <v>112</v>
       </c>
@@ -9041,7 +9100,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="548" spans="3:9">
+    <row r="548" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C548" t="s">
         <v>43</v>
       </c>
@@ -9055,7 +9114,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="549" spans="3:9">
+    <row r="549" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C549" t="s">
         <v>45</v>
       </c>
@@ -9069,7 +9128,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="550" spans="3:9">
+    <row r="550" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D550" t="s">
         <v>20</v>
       </c>
@@ -9083,7 +9142,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="551" spans="3:9">
+    <row r="551" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D551" t="s">
         <v>20</v>
       </c>
@@ -9097,7 +9156,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="552" spans="3:9">
+    <row r="552" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D552" t="s">
         <v>47</v>
       </c>
@@ -9111,7 +9170,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="553" spans="3:9">
+    <row r="553" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D553" t="s">
         <v>49</v>
       </c>
@@ -9125,7 +9184,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="554" spans="3:9">
+    <row r="554" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E554" t="s">
         <v>112</v>
       </c>
@@ -9139,7 +9198,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="555" spans="3:9">
+    <row r="555" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D555" t="s">
         <v>47</v>
       </c>
@@ -9153,7 +9212,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="556" spans="3:9">
+    <row r="556" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D556" t="s">
         <v>49</v>
       </c>
@@ -9167,7 +9226,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="557" spans="3:9">
+    <row r="557" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D557" t="s">
         <v>47</v>
       </c>
@@ -9181,7 +9240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="558" spans="3:9">
+    <row r="558" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D558" t="s">
         <v>49</v>
       </c>
@@ -9195,7 +9254,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="559" spans="3:9">
+    <row r="559" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D559" t="s">
         <v>47</v>
       </c>
@@ -9209,7 +9268,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="560" spans="3:9">
+    <row r="560" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D560" t="s">
         <v>49</v>
       </c>
@@ -9223,7 +9282,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="561" spans="3:9">
+    <row r="561" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D561" t="s">
         <v>47</v>
       </c>
@@ -9237,7 +9296,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="562" spans="3:9">
+    <row r="562" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D562" t="s">
         <v>49</v>
       </c>
@@ -9251,7 +9310,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="563" spans="3:9">
+    <row r="563" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D563" t="s">
         <v>47</v>
       </c>
@@ -9265,7 +9324,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="564" spans="3:9">
+    <row r="564" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D564" t="s">
         <v>49</v>
       </c>
@@ -9279,7 +9338,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="565" spans="3:9">
+    <row r="565" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E565" t="s">
         <v>112</v>
       </c>
@@ -9293,7 +9352,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="566" spans="3:9">
+    <row r="566" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D566" t="s">
         <v>47</v>
       </c>
@@ -9307,7 +9366,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="567" spans="3:9">
+    <row r="567" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D567" t="s">
         <v>49</v>
       </c>
@@ -9321,7 +9380,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="568" spans="3:9">
+    <row r="568" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E568" t="s">
         <v>112</v>
       </c>
@@ -9335,7 +9394,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="569" spans="3:9">
+    <row r="569" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D569" t="s">
         <v>47</v>
       </c>
@@ -9349,7 +9408,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="570" spans="3:9">
+    <row r="570" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D570" t="s">
         <v>49</v>
       </c>
@@ -9363,7 +9422,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="571" spans="3:9">
+    <row r="571" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E571" t="s">
         <v>112</v>
       </c>
@@ -9377,7 +9436,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="572" spans="3:9">
+    <row r="572" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E572" t="s">
         <v>112</v>
       </c>
@@ -9391,7 +9450,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="573" spans="3:9">
+    <row r="573" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D573" t="s">
         <v>47</v>
       </c>
@@ -9405,7 +9464,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="574" spans="3:9">
+    <row r="574" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D574" t="s">
         <v>49</v>
       </c>
@@ -9419,7 +9478,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="575" spans="3:9">
+    <row r="575" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C575" t="s">
         <v>43</v>
       </c>
@@ -9433,7 +9492,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="576" spans="3:9">
+    <row r="576" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C576" t="s">
         <v>45</v>
       </c>
@@ -9447,7 +9506,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="577" spans="3:9">
+    <row r="577" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D577" t="s">
         <v>151</v>
       </c>
@@ -9461,7 +9520,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="578" spans="3:9">
+    <row r="578" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D578" t="s">
         <v>102</v>
       </c>
@@ -9475,7 +9534,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="579" spans="3:9">
+    <row r="579" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D579" t="s">
         <v>104</v>
       </c>
@@ -9489,7 +9548,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="580" spans="3:9">
+    <row r="580" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E580" t="s">
         <v>14</v>
       </c>
@@ -9503,7 +9562,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="581" spans="3:9">
+    <row r="581" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E581" t="s">
         <v>14</v>
       </c>
@@ -9517,7 +9576,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="582" spans="3:9">
+    <row r="582" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C582" t="s">
         <v>43</v>
       </c>
@@ -9531,7 +9590,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="583" spans="3:9">
+    <row r="583" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C583" t="s">
         <v>45</v>
       </c>
@@ -9545,7 +9604,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="584" spans="3:9">
+    <row r="584" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D584" t="s">
         <v>20</v>
       </c>
@@ -9559,7 +9618,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="585" spans="3:9">
+    <row r="585" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D585" t="s">
         <v>47</v>
       </c>
@@ -9573,7 +9632,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="586" spans="3:9">
+    <row r="586" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D586" t="s">
         <v>49</v>
       </c>
@@ -9587,7 +9646,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="587" spans="3:9">
+    <row r="587" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E587" t="s">
         <v>112</v>
       </c>
@@ -9601,7 +9660,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="588" spans="3:9">
+    <row r="588" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D588" t="s">
         <v>47</v>
       </c>
@@ -9615,7 +9674,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="589" spans="3:9">
+    <row r="589" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D589" t="s">
         <v>49</v>
       </c>
@@ -9629,7 +9688,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="590" spans="3:9">
+    <row r="590" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D590" t="s">
         <v>47</v>
       </c>
@@ -9643,7 +9702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="591" spans="3:9">
+    <row r="591" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D591" t="s">
         <v>49</v>
       </c>
@@ -9657,7 +9716,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="592" spans="3:9">
+    <row r="592" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D592" t="s">
         <v>47</v>
       </c>
@@ -9671,7 +9730,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="593" spans="3:9">
+    <row r="593" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D593" t="s">
         <v>49</v>
       </c>
@@ -9685,7 +9744,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="594" spans="3:9">
+    <row r="594" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D594" t="s">
         <v>47</v>
       </c>
@@ -9699,7 +9758,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="595" spans="3:9">
+    <row r="595" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D595" t="s">
         <v>49</v>
       </c>
@@ -9713,7 +9772,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="596" spans="3:9">
+    <row r="596" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D596" t="s">
         <v>47</v>
       </c>
@@ -9727,7 +9786,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="597" spans="3:9">
+    <row r="597" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D597" t="s">
         <v>49</v>
       </c>
@@ -9741,7 +9800,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="598" spans="3:9">
+    <row r="598" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D598" t="s">
         <v>47</v>
       </c>
@@ -9755,7 +9814,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="599" spans="3:9">
+    <row r="599" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D599" t="s">
         <v>49</v>
       </c>
@@ -9769,7 +9828,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="600" spans="3:9">
+    <row r="600" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C600" t="s">
         <v>43</v>
       </c>
@@ -9783,7 +9842,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="601" spans="3:9">
+    <row r="601" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C601" t="s">
         <v>45</v>
       </c>
@@ -9797,7 +9856,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="602" spans="3:9">
+    <row r="602" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D602" t="s">
         <v>151</v>
       </c>
@@ -9811,7 +9870,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="603" spans="3:9">
+    <row r="603" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D603" t="s">
         <v>102</v>
       </c>
@@ -9825,7 +9884,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="604" spans="3:9">
+    <row r="604" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D604" t="s">
         <v>104</v>
       </c>
@@ -9839,7 +9898,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="605" spans="3:9">
+    <row r="605" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E605" t="s">
         <v>14</v>
       </c>
@@ -9853,7 +9912,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="606" spans="3:9">
+    <row r="606" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E606" t="s">
         <v>14</v>
       </c>
@@ -9867,7 +9926,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="607" spans="3:9">
+    <row r="607" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C607" t="s">
         <v>43</v>
       </c>
@@ -9881,7 +9940,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="608" spans="3:9">
+    <row r="608" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C608" t="s">
         <v>45</v>
       </c>
@@ -9895,7 +9954,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="609" spans="3:9">
+    <row r="609" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D609" t="s">
         <v>47</v>
       </c>
@@ -9909,7 +9968,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="610" spans="3:9">
+    <row r="610" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D610" t="s">
         <v>49</v>
       </c>
@@ -9923,7 +9982,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="611" spans="3:9">
+    <row r="611" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D611" t="s">
         <v>47</v>
       </c>
@@ -9937,7 +9996,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="612" spans="3:9">
+    <row r="612" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D612" t="s">
         <v>49</v>
       </c>
@@ -9951,7 +10010,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="613" spans="3:9">
+    <row r="613" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C613" t="s">
         <v>43</v>
       </c>
@@ -9965,7 +10024,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="614" spans="3:9">
+    <row r="614" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C614" t="s">
         <v>45</v>
       </c>
@@ -9979,7 +10038,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="615" spans="3:9">
+    <row r="615" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D615" t="s">
         <v>102</v>
       </c>
@@ -9993,7 +10052,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="616" spans="3:9">
+    <row r="616" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D616" t="s">
         <v>104</v>
       </c>
@@ -10007,7 +10066,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="617" spans="3:9">
+    <row r="617" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D617" t="s">
         <v>102</v>
       </c>
@@ -10021,7 +10080,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="618" spans="3:9">
+    <row r="618" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D618" t="s">
         <v>104</v>
       </c>
@@ -10035,7 +10094,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="619" spans="3:9">
+    <row r="619" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E619" t="s">
         <v>14</v>
       </c>
@@ -10049,7 +10108,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="620" spans="3:9">
+    <row r="620" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E620" t="s">
         <v>14</v>
       </c>
@@ -10063,7 +10122,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="621" spans="3:9">
+    <row r="621" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D621" t="s">
         <v>102</v>
       </c>
@@ -10077,7 +10136,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="622" spans="3:9">
+    <row r="622" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D622" t="s">
         <v>104</v>
       </c>
@@ -10091,7 +10150,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="623" spans="3:9">
+    <row r="623" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E623" t="s">
         <v>14</v>
       </c>
@@ -10105,7 +10164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="3:9">
+    <row r="624" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E624" t="s">
         <v>14</v>
       </c>
@@ -10119,7 +10178,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="625" spans="3:9">
+    <row r="625" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D625" t="s">
         <v>47</v>
       </c>
@@ -10133,7 +10192,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="626" spans="3:9">
+    <row r="626" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D626" t="s">
         <v>49</v>
       </c>
@@ -10147,7 +10206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="627" spans="3:9">
+    <row r="627" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D627" t="s">
         <v>47</v>
       </c>
@@ -10161,7 +10220,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="628" spans="3:9">
+    <row r="628" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D628" t="s">
         <v>49</v>
       </c>
@@ -10175,7 +10234,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="629" spans="3:9">
+    <row r="629" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D629" t="s">
         <v>47</v>
       </c>
@@ -10189,7 +10248,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="630" spans="3:9">
+    <row r="630" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D630" t="s">
         <v>49</v>
       </c>
@@ -10203,7 +10262,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="631" spans="3:9">
+    <row r="631" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E631" t="s">
         <v>112</v>
       </c>
@@ -10217,7 +10276,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="632" spans="3:9">
+    <row r="632" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D632" t="s">
         <v>47</v>
       </c>
@@ -10231,7 +10290,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="633" spans="3:9">
+    <row r="633" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D633" t="s">
         <v>49</v>
       </c>
@@ -10245,7 +10304,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="634" spans="3:9">
+    <row r="634" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E634" t="s">
         <v>112</v>
       </c>
@@ -10259,7 +10318,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="635" spans="3:9">
+    <row r="635" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C635" t="s">
         <v>43</v>
       </c>
@@ -10273,7 +10332,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="636" spans="3:9">
+    <row r="636" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C636" t="s">
         <v>45</v>
       </c>
@@ -10287,7 +10346,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="637" spans="3:9">
+    <row r="637" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D637" t="s">
         <v>20</v>
       </c>
@@ -10301,7 +10360,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="638" spans="3:9">
+    <row r="638" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D638" t="s">
         <v>20</v>
       </c>
@@ -10315,7 +10374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="639" spans="3:9">
+    <row r="639" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D639" t="s">
         <v>102</v>
       </c>
@@ -10329,7 +10388,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="640" spans="3:9">
+    <row r="640" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D640" t="s">
         <v>104</v>
       </c>
@@ -10343,7 +10402,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="641" spans="3:9">
+    <row r="641" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D641" t="s">
         <v>102</v>
       </c>
@@ -10357,7 +10416,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="642" spans="3:9">
+    <row r="642" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D642" t="s">
         <v>104</v>
       </c>
@@ -10371,7 +10430,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="643" spans="3:9">
+    <row r="643" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E643" t="s">
         <v>14</v>
       </c>
@@ -10385,7 +10444,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="644" spans="3:9">
+    <row r="644" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E644" t="s">
         <v>14</v>
       </c>
@@ -10399,7 +10458,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="645" spans="3:9">
+    <row r="645" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D645" t="s">
         <v>47</v>
       </c>
@@ -10413,7 +10472,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="646" spans="3:9">
+    <row r="646" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D646" t="s">
         <v>49</v>
       </c>
@@ -10427,7 +10486,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="647" spans="3:9">
+    <row r="647" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D647" t="s">
         <v>47</v>
       </c>
@@ -10441,7 +10500,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="648" spans="3:9">
+    <row r="648" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D648" t="s">
         <v>49</v>
       </c>
@@ -10455,7 +10514,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="649" spans="3:9">
+    <row r="649" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D649" t="s">
         <v>47</v>
       </c>
@@ -10469,7 +10528,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="650" spans="3:9">
+    <row r="650" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D650" t="s">
         <v>49</v>
       </c>
@@ -10483,7 +10542,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="651" spans="3:9">
+    <row r="651" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E651" t="s">
         <v>112</v>
       </c>
@@ -10497,7 +10556,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="652" spans="3:9">
+    <row r="652" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D652" t="s">
         <v>47</v>
       </c>
@@ -10511,7 +10570,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="653" spans="3:9">
+    <row r="653" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D653" t="s">
         <v>49</v>
       </c>
@@ -10525,7 +10584,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="654" spans="3:9">
+    <row r="654" spans="3:9" x14ac:dyDescent="0.3">
       <c r="E654" t="s">
         <v>112</v>
       </c>
@@ -10539,7 +10598,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="655" spans="3:9">
+    <row r="655" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C655" t="s">
         <v>43</v>
       </c>
@@ -10553,7 +10612,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="656" spans="3:9">
+    <row r="656" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C656" t="s">
         <v>45</v>
       </c>
@@ -10567,7 +10626,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="657" spans="4:9">
+    <row r="657" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D657" t="s">
         <v>20</v>
       </c>
@@ -10581,7 +10640,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="658" spans="4:9">
+    <row r="658" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D658" t="s">
         <v>20</v>
       </c>
@@ -10595,7 +10654,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="659" spans="4:9">
+    <row r="659" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D659" t="s">
         <v>102</v>
       </c>
@@ -10609,7 +10668,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="660" spans="4:9">
+    <row r="660" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D660" t="s">
         <v>104</v>
       </c>
@@ -10623,7 +10682,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="661" spans="4:9">
+    <row r="661" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D661" t="s">
         <v>102</v>
       </c>
@@ -10637,7 +10696,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="662" spans="4:9">
+    <row r="662" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D662" t="s">
         <v>104</v>
       </c>
@@ -10651,7 +10710,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="663" spans="4:9">
+    <row r="663" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E663" t="s">
         <v>14</v>
       </c>
@@ -10665,7 +10724,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="664" spans="4:9">
+    <row r="664" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E664" t="s">
         <v>14</v>
       </c>
@@ -10679,7 +10738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="665" spans="4:9">
+    <row r="665" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D665" t="s">
         <v>47</v>
       </c>
@@ -10693,7 +10752,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="666" spans="4:9">
+    <row r="666" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D666" t="s">
         <v>49</v>
       </c>
@@ -10707,7 +10766,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="667" spans="4:9">
+    <row r="667" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D667" t="s">
         <v>47</v>
       </c>
@@ -10721,7 +10780,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="668" spans="4:9">
+    <row r="668" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D668" t="s">
         <v>49</v>
       </c>
@@ -10735,7 +10794,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="669" spans="4:9">
+    <row r="669" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E669" t="s">
         <v>112</v>
       </c>
@@ -10749,7 +10808,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="670" spans="4:9">
+    <row r="670" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D670" t="s">
         <v>47</v>
       </c>
@@ -10763,7 +10822,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="671" spans="4:9">
+    <row r="671" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D671" t="s">
         <v>49</v>
       </c>
@@ -10777,7 +10836,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="672" spans="4:9">
+    <row r="672" spans="4:9" x14ac:dyDescent="0.3">
       <c r="E672" t="s">
         <v>112</v>
       </c>
@@ -10791,7 +10850,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="673" spans="3:9">
+    <row r="673" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C673" t="s">
         <v>320</v>
       </c>
@@ -10805,7 +10864,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="674" spans="3:9">
+    <row r="674" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C674" t="s">
         <v>23</v>
       </c>
@@ -10819,7 +10878,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="675" spans="3:9">
+    <row r="675" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D675" t="s">
         <v>20</v>
       </c>
@@ -10833,7 +10892,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="676" spans="3:9">
+    <row r="676" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D676" t="s">
         <v>20</v>
       </c>
@@ -10847,7 +10906,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="677" spans="3:9">
+    <row r="677" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D677" t="s">
         <v>20</v>
       </c>
@@ -10861,7 +10920,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="678" spans="3:9">
+    <row r="678" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C678" t="s">
         <v>320</v>
       </c>
@@ -10875,7 +10934,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="679" spans="3:9">
+    <row r="679" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C679" t="s">
         <v>23</v>
       </c>
@@ -10889,7 +10948,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="680" spans="3:9">
+    <row r="680" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D680" t="s">
         <v>20</v>
       </c>
@@ -10903,7 +10962,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="681" spans="3:9">
+    <row r="681" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C681" t="s">
         <v>320</v>
       </c>
@@ -10917,7 +10976,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="682" spans="3:9">
+    <row r="682" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C682" t="s">
         <v>23</v>
       </c>
@@ -10931,7 +10990,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="683" spans="3:9">
+    <row r="683" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D683" t="s">
         <v>20</v>
       </c>
@@ -10945,7 +11004,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="684" spans="3:9">
+    <row r="684" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C684" t="s">
         <v>320</v>
       </c>
@@ -10959,7 +11018,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="685" spans="3:9">
+    <row r="685" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C685" t="s">
         <v>23</v>
       </c>
@@ -10973,7 +11032,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="686" spans="3:9">
+    <row r="686" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C686" t="s">
         <v>320</v>
       </c>
@@ -10987,7 +11046,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="687" spans="3:9">
+    <row r="687" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C687" t="s">
         <v>23</v>
       </c>
@@ -11001,7 +11060,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="688" spans="3:9">
+    <row r="688" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D688" t="s">
         <v>20</v>
       </c>
@@ -11015,7 +11074,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="689" spans="3:9">
+    <row r="689" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C689" t="s">
         <v>320</v>
       </c>
@@ -11029,7 +11088,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="690" spans="3:9">
+    <row r="690" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C690" t="s">
         <v>23</v>
       </c>
@@ -11043,7 +11102,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="691" spans="3:9">
+    <row r="691" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D691" t="s">
         <v>20</v>
       </c>
@@ -11057,7 +11116,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="692" spans="3:9">
+    <row r="692" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C692" t="s">
         <v>320</v>
       </c>
@@ -11071,7 +11130,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="693" spans="3:9">
+    <row r="693" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C693" t="s">
         <v>23</v>
       </c>
@@ -11085,7 +11144,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="694" spans="3:9">
+    <row r="694" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C694" t="s">
         <v>320</v>
       </c>
@@ -11099,7 +11158,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="695" spans="3:9">
+    <row r="695" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C695" t="s">
         <v>23</v>
       </c>
@@ -11113,7 +11172,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="696" spans="3:9">
+    <row r="696" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C696" t="s">
         <v>320</v>
       </c>
@@ -11127,7 +11186,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="697" spans="3:9">
+    <row r="697" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C697" t="s">
         <v>23</v>
       </c>
@@ -11141,7 +11200,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="698" spans="3:9">
+    <row r="698" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D698" t="s">
         <v>20</v>
       </c>
@@ -11155,7 +11214,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="699" spans="3:9">
+    <row r="699" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C699" t="s">
         <v>320</v>
       </c>
@@ -11169,7 +11228,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="700" spans="3:9">
+    <row r="700" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C700" t="s">
         <v>23</v>
       </c>
@@ -11183,7 +11242,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="701" spans="3:9">
+    <row r="701" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C701" t="s">
         <v>320</v>
       </c>
@@ -11197,7 +11256,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="702" spans="3:9">
+    <row r="702" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C702" t="s">
         <v>23</v>
       </c>
@@ -11211,7 +11270,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="703" spans="3:9">
+    <row r="703" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D703" t="s">
         <v>20</v>
       </c>
@@ -11225,7 +11284,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="704" spans="3:9">
+    <row r="704" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C704" t="s">
         <v>320</v>
       </c>
@@ -11239,7 +11298,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="705" spans="1:9">
+    <row r="705" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C705" t="s">
         <v>23</v>
       </c>
@@ -11253,7 +11312,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="706" spans="1:9">
+    <row r="706" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D706" t="s">
         <v>20</v>
       </c>
@@ -11267,7 +11326,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="707" spans="1:9">
+    <row r="707" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A707" t="s">
         <v>337</v>
       </c>
@@ -11283,5 +11342,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>